--- a/labs.xlsx
+++ b/labs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solly\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solly\Documents\GitHub\Sem8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE21B99-7D78-4989-A12F-656CE3823693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8EF537-AB55-4540-A7B2-6B2DF92E6806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +99,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,12 +136,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -419,7 +426,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,11 +528,11 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -568,7 +575,7 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -612,10 +619,10 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="1">
@@ -633,7 +640,7 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="1">
@@ -668,8 +675,8 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
+      <c r="F6" s="3">
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -704,7 +711,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N9">
         <f>65-SUM(B2:N6)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/labs.xlsx
+++ b/labs.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solly\Documents\GitHub\Sem8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8EF537-AB55-4540-A7B2-6B2DF92E6806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -65,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -238,7 +232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -415,28 +409,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -480,7 +474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -490,8 +484,8 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
+      <c r="D2" s="3">
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -524,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -571,12 +565,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -593,29 +587,29 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -659,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -703,15 +697,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="N8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="N9">
         <f>65-SUM(B2:N6)</f>
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/labs.xlsx
+++ b/labs.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solly\Documents\GitHub\Sem8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F750EAF-552C-4602-B051-310927A9EFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,8 +65,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,28 +415,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -473,8 +478,14 @@
       <c r="N1" s="4">
         <v>13</v>
       </c>
+      <c r="O1" s="4">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -487,8 +498,8 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
+      <c r="E2" s="3">
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -518,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -528,10 +539,10 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -565,20 +576,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="1">
@@ -587,29 +598,35 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -619,7 +636,7 @@
       <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="1">
@@ -634,10 +651,10 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -653,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -697,15 +714,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N9">
         <f>65-SUM(B2:N6)</f>
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/labs.xlsx
+++ b/labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solly\Documents\GitHub\Sem8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F750EAF-552C-4602-B051-310927A9EFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E040CD-6A46-4595-9AF3-0741887A7998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +501,8 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
+      <c r="F2" s="3">
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -533,17 +533,17 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -583,8 +583,8 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
-        <v>0</v>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -592,8 +592,8 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
+      <c r="F4" s="3">
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -633,8 +633,8 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -654,8 +654,8 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
+      <c r="J5" s="3">
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -722,7 +722,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N9">
         <f>65-SUM(B2:N6)</f>
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/labs.xlsx
+++ b/labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solly\Documents\GitHub\Sem8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E040CD-6A46-4595-9AF3-0741887A7998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13D9975-15F1-44C7-AB0D-36BDDC8E03D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,8 +586,8 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
+      <c r="D4" s="3">
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -595,11 +595,11 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -722,7 +722,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N9">
         <f>65-SUM(B2:N6)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/labs.xlsx
+++ b/labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solly\Documents\GitHub\Sem8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13D9975-15F1-44C7-AB0D-36BDDC8E03D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BD46A2-65A1-42C1-B57E-A52E01B75128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,20 +504,20 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -657,8 +657,8 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
+      <c r="K5" s="3">
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -677,8 +677,8 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
+      <c r="C6" s="3">
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -689,8 +689,8 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
+      <c r="G6" s="3">
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -722,7 +722,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N9">
         <f>65-SUM(B2:N6)</f>
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
